--- a/script/result_llm_tranform/ardupilot_docs/ap_rtl-mode/result.xlsx
+++ b/script/result_llm_tranform/ardupilot_docs/ap_rtl-mode/result.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17388" windowHeight="9024"/>
+    <workbookView windowHeight="14580"/>
   </bookViews>
   <sheets>
     <sheet name="mtl" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="273">
   <si>
     <t>index</t>
   </si>
@@ -699,6 +699,9 @@
     <t>This formula states that globally (G), when RTL is activated, eventually (F) the altitude (A) will be greater than or equal to the RTL_CLIMB_MIN value (C). This captures the minimum climb requirement at the start of RTL.</t>
   </si>
   <si>
+    <t>{'sentence': 'By default this value is zero.', 'formula': 'G(¬RCM → (RCM = 0))', 'explanation': 'RCM represents the RTL_CLIMB_MIN. The formula states that globally, if RCM is not true, then its value is 0.'}</t>
+  </si>
+  <si>
     <t>89-91</t>
   </si>
   <si>
@@ -847,9 +850,6 @@
   </si>
   <si>
     <t>{'sentence': 'The default return altitude Default is 15 meters (1500)', 'formula': 'G(RTL ∧ ¬A → F(1500))', 'explanation': 'Here, RTL represents the RTL mode, A represents the altitude setting, and 1500 represents the default return altitude. The formula states that if no altitude is set in RTL mode, the copter will return to an altitude of 1500 centimeters by default.'}</t>
-  </si>
-  <si>
-    <t>{'sentence': 'By default this value is zero.', 'formula': 'G(¬RCM → (RCM = 0))', 'explanation': 'RCM represents the RTL_CLIMB_MIN. The formula states that globally, if RCM is not true, then its value is 0.'}</t>
   </si>
   <si>
     <t>{'sentence': '1.Other navigation settings also have an influence over RTL mode: WPNAV_ACCEL, WPNAV_SPEED_DN, WPNAV_SPEED_UP', 'formula': 'G(RTL → (A ∨ D ∨ U))', 'explanation': 'Here, RTL represents the RTL mode, A represents WPNAV_ACCEL, D represents WPNAV_SPEED_DN, and U represents WPNAV_SPEED_UP. The formula states that whenever RTL mode is activated, at least one of the navigation settings (A, D, or U) is influential.'}</t>
@@ -1846,15 +1846,15 @@
   <sheetPr/>
   <dimension ref="A1:M61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H66" sqref="H66"/>
+      <selection pane="bottomLeft" activeCell="I46" sqref="I46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
-    <col min="1" max="13" width="30.7777777777778" customWidth="1"/>
+    <col min="1" max="13" width="30.7788461538462" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="25" customHeight="1" spans="1:13">
@@ -3352,10 +3352,10 @@
         <v>8</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>8</v>
+        <v>221</v>
+      </c>
+      <c r="I37" s="2">
+        <v>1</v>
       </c>
       <c r="J37" s="2" t="s">
         <v>8</v>
@@ -3378,34 +3378,34 @@
         <v>16</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="I38" s="2">
         <v>1</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K38" s="2">
         <v>0</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M38" s="2">
         <v>1</v>
@@ -3419,22 +3419,22 @@
         <v>16</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="I39" s="2">
         <v>1</v>
@@ -3460,34 +3460,34 @@
         <v>88</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I40" s="2">
         <v>1</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K40" s="2">
         <v>1</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M40" s="2">
         <v>1</v>
@@ -3501,22 +3501,22 @@
         <v>11</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="I41" s="2">
         <v>1</v>
@@ -3542,22 +3542,22 @@
         <v>16</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="I42" s="2">
         <v>1</v>
@@ -3583,22 +3583,22 @@
         <v>16</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="I43" s="2">
         <v>1</v>
@@ -3610,7 +3610,7 @@
         <v>8</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M43" s="2">
         <v>1</v>
@@ -3624,34 +3624,34 @@
         <v>16</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="I44" s="2">
         <v>1</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="K44" s="2">
         <v>1</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M44" s="2">
         <v>1</v>
@@ -3665,34 +3665,34 @@
         <v>11</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I45" s="2">
         <v>1</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="K45" s="2">
         <v>1</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M45" s="2">
         <v>1</v>
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="I51" s="2">
         <v>0</v>
@@ -3990,12 +3990,6 @@
       </c>
       <c r="G53" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="I53" s="2">
-        <v>0</v>
       </c>
       <c r="J53" s="2" t="s">
         <v>8</v>
@@ -4136,7 +4130,7 @@
       </c>
       <c r="I60">
         <f>COUNTIF(I2:I56,"1")</f>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J60">
         <f>COUNTIF(J2:J56,"*{*")</f>
@@ -4158,7 +4152,7 @@
     <row r="61" spans="9:13">
       <c r="I61">
         <f>COUNTIF(I2:I56,"0")</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K61">
         <f>COUNTIF(K2:K56,"0")</f>
